--- a/regionseng/10/environmental protection/environmental protection.xlsx
+++ b/regionseng/10/environmental protection/environmental protection.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DB2351-0CA0-4DEE-AF7E-6BAA2AFF91A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Tbilisi" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="15">
   <si>
     <t>...</t>
   </si>
@@ -94,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#\ ##0.0"/>
     <numFmt numFmtId="165" formatCode="##\ ##0.0"/>
@@ -241,16 +240,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -346,23 +345,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -398,23 +380,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -590,11 +555,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,20 +568,22 @@
     <col min="2" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="13">
         <v>2013</v>
@@ -642,8 +609,14 @@
       <c r="I2" s="14">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="14">
+        <v>2021</v>
+      </c>
+      <c r="K2" s="14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -671,8 +644,14 @@
       <c r="I3" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -700,8 +679,14 @@
       <c r="I4" s="10">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="10">
+        <v>13.4</v>
+      </c>
+      <c r="K4" s="10">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -729,8 +714,14 @@
       <c r="I5" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -758,8 +749,14 @@
       <c r="I6" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -776,19 +773,25 @@
         <v>59.5</v>
       </c>
       <c r="F7" s="11">
-        <v>28.1</v>
+        <v>159.9</v>
       </c>
       <c r="G7" s="11">
-        <v>22.6</v>
+        <v>135.1</v>
       </c>
       <c r="H7" s="11">
-        <v>26.7</v>
+        <v>186.3</v>
       </c>
       <c r="I7" s="11">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>151.80000000000001</v>
+      </c>
+      <c r="J7" s="11">
+        <v>145.9</v>
+      </c>
+      <c r="K7" s="11">
+        <v>139.80000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -800,8 +803,10 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -818,19 +823,25 @@
         <v>57.7</v>
       </c>
       <c r="F9" s="11">
-        <v>26.2</v>
+        <v>157.9</v>
       </c>
       <c r="G9" s="11">
-        <v>18.2</v>
+        <v>133.19999999999999</v>
       </c>
       <c r="H9" s="11">
-        <v>23.5</v>
+        <v>184.3</v>
       </c>
       <c r="I9" s="11">
-        <v>42.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>149.1</v>
+      </c>
+      <c r="J9" s="11">
+        <v>143.5</v>
+      </c>
+      <c r="K9" s="11">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -847,77 +858,91 @@
         <v>1.8</v>
       </c>
       <c r="F10" s="12">
+        <v>2</v>
+      </c>
+      <c r="G10" s="12">
         <v>1.9</v>
       </c>
-      <c r="G10" s="12">
-        <v>4.4000000000000004</v>
-      </c>
       <c r="H10" s="12">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="I10" s="12">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+        <v>2.7</v>
+      </c>
+      <c r="J10" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="K10" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -955,11 +980,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A14:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/regionseng/10/environmental protection/environmental protection.xlsx
+++ b/regionseng/10/environmental protection/environmental protection.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Tbilisi" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="15">
   <si>
     <t>...</t>
   </si>
@@ -556,19 +556,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.7109375" style="2" customWidth="1"/>
-    <col min="2" max="9" width="9.7109375" customWidth="1"/>
+    <col min="2" max="12" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
@@ -582,8 +582,9 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="13">
         <v>2013</v>
@@ -615,8 +616,11 @@
       <c r="K2" s="14">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -650,8 +654,11 @@
       <c r="K3" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -685,8 +692,11 @@
       <c r="K4" s="10">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -720,8 +730,11 @@
       <c r="K5" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -755,8 +768,11 @@
       <c r="K6" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -790,8 +806,11 @@
       <c r="K7" s="11">
         <v>139.80000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="11">
+        <v>167.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -805,8 +824,9 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -840,8 +860,11 @@
       <c r="K9" s="11">
         <v>137.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="11">
+        <v>165.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -875,8 +898,11 @@
       <c r="K10" s="12">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="12">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
@@ -890,8 +916,9 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
@@ -905,8 +932,9 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>12</v>
       </c>
@@ -920,8 +948,9 @@
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>14</v>
       </c>
@@ -935,14 +964,15 @@
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -980,11 +1010,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A14:L14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
